--- a/public/waterfall.xlsx
+++ b/public/waterfall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterina/Desktop/waterfall/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD38DE3A-F047-A64C-B01B-81A395570941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42458B0-0861-C84B-9928-B987810BDE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{1EF2D7BC-1F57-7B47-8536-1BAA1237F8B4}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/waterfall.xlsx
+++ b/public/waterfall.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterina/Desktop/waterfall/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42458B0-0861-C84B-9928-B987810BDE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A87210-7AF9-9846-B9D1-DC08EDA14D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{1EF2D7BC-1F57-7B47-8536-1BAA1237F8B4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{1EF2D7BC-1F57-7B47-8536-1BAA1237F8B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="settings" sheetId="3" r:id="rId2"/>
-    <sheet name="styles" sheetId="2" r:id="rId3"/>
+    <sheet name="instructions" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="styles" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -78,9 +79,6 @@
     <t>ширина графика</t>
   </si>
   <si>
-    <t>подпись графика</t>
-  </si>
-  <si>
     <t>Patients (N= 92)</t>
   </si>
   <si>
@@ -184,6 +182,15 @@
   </si>
   <si>
     <t>Change,%</t>
+  </si>
+  <si>
+    <t>для составление листа data нужно заполнить три колонки(имя/ID пациента, процент и категорию), на листе styles, key это категория, а color цвет для ее отображения на графике.</t>
+  </si>
+  <si>
+    <t>подпись графика по горизонтали</t>
+  </si>
+  <si>
+    <t>подпись графика по вертикали</t>
   </si>
 </sst>
 </file>
@@ -193,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,22 +307,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -323,65 +332,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,27 +348,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,6 +692,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3C4041-B377-4A49-A909-76C37582CC89}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA64B3EF-EC1C-E849-8C55-5BD19440DCB8}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -753,277 +870,277 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>-2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>-2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>-2</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>-2</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>-20</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>-5</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>-2</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>-4</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>-16</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>-23</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>-24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>-5.1923076923076898</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>-5.0714285714285703</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>-4.9505494505494596</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>-4.82967032967034</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>-4.7692307692307798</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>-4.7087912087912196</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1032,21 +1149,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFDC83B-449B-A34A-BF2D-ED535240B903}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1060,11 +1178,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="7">
         <v>900</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1076,11 +1194,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="8">
         <v>1200</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1092,15 +1210,15 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1108,18 +1226,21 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>48</v>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -1129,165 +1250,245 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1299,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB50A075-C070-6E4F-9D11-67F59EFBC4D1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1319,7 +1520,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1327,7 +1528,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1335,18 +1536,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
